--- a/data/trans_dic/P42_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P42_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en ERTE o cese de actividad</t>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,7 +681,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -671,17 +696,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -696,22 +721,37 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,48</t>
+          <t>0,0; 19,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,7</t>
+          <t>0,0; 12,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 31,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>1,29; 11,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 27,36</t>
+          <t>1,97; 18,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 23,71</t>
+          <t>1,52; 17,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,43</t>
+          <t>0,0; 12,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,14</t>
+          <t>0,0; 12,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,46; 42,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 30,28</t>
+          <t>5,77; 28,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,58</t>
+          <t>1,93; 24,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 14,35</t>
+          <t>0,0; 9,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 30,61</t>
+          <t>0,0; 11,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 21,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,88</t>
+          <t>5,86; 19,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 8,31</t>
+          <t>3,5; 16,65</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,46</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 7,57</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,12 +1021,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -956,42 +1041,57 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 34,52</t>
+          <t>3,23; 18,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,12</t>
+          <t>0,0; 10,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 21,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 14,75</t>
+          <t>3,81; 14,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,89</t>
+          <t>2,85; 12,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 10,01</t>
+          <t>0,86; 7,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,64; 24,24</t>
+          <t>0,95; 8,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 9,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,42</t>
+          <t>4,54; 12,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,97</t>
+          <t>2,96; 9,72</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 4,71</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,85</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1191,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,47 +1206,62 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,82; 22,09</t>
+          <t>7,45; 22,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 17,89</t>
+          <t>6,05; 20,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,29</t>
+          <t>1,08; 9,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,43</t>
+          <t>1,01; 9,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 21,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 13,01</t>
+          <t>2,04; 12,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,57</t>
+          <t>0,98; 9,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,34</t>
+          <t>0,0; 6,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 19,01</t>
+          <t>0,0; 6,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 13,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,81</t>
+          <t>5,73; 14,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,28</t>
+          <t>4,65; 12,02</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 5,89</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 5,8</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1361,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1236,42 +1381,57 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 15,62</t>
+          <t>0,0; 7,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,96</t>
+          <t>0,0; 6,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 36,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,27</t>
+          <t>1,92; 17,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,3</t>
+          <t>0,0; 10,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 18,65</t>
+          <t>0,0; 9,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,47</t>
+          <t>1,59; 9,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,93</t>
+          <t>0,0; 3,89</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,65</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,32</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1551,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1410,6 +1585,21 @@
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -1424,22 +1614,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,32 +1644,47 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,23; 19,65</t>
+          <t>4,31; 10,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,12</t>
+          <t>2,7; 7,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,05</t>
+          <t>0,35; 2,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 6,46</t>
+          <t>0,29; 2,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,53; 21,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,9</t>
+          <t>4,48; 10,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,84</t>
+          <t>2,41; 7,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,63</t>
+          <t>0,69; 3,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,31; 19,04</t>
+          <t>0,88; 3,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,1</t>
+          <t>5,19; 8,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,37</t>
+          <t>2,88; 6,01</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,47</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 2,65</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2674</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8172</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16769</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14599</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2625; 22454</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11058</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10120</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2772</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2739</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19621</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15729</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4721</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30679</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25849</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5094</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7461</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2689; 25903</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2572; 29314</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17982</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18841</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7695; 37559</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3183; 39979</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11558</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14785</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15825; 53319</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11671; 55599</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20162</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2181; 21233</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11662</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5414</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16782</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17841</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5938</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6122</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28443</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23255</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5938</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6122</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4507; 25657</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16595</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8124; 31659</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7456; 33904</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1810; 15622</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1898; 17175</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16044; 44865</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12544; 41170</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1831; 16186</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1896; 16402</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22560</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22819</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5738</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5374</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11249</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8400</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3526</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3190</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>33809</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>31219</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9264</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8564</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12186; 37359</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11302; 37517</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1740; 15372</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1584; 14521</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3870; 22853</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2114; 19630</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12546</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11597</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>20249; 51538</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18769; 48491</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>3559; 20441</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3267; 19063</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7914</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1716</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9874</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1716</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10058</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10612</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1985; 18286</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9886</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8675</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3821; 22420</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10558</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8253</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7159</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>52738</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>40400</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8510</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8113</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>41970</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>13756</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>15749</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>110978</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>82370</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>22267</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>23862</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>32390; 77823</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>23930; 65281</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2652; 20665</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2306; 19974</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>38738; 86454</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24837; 74057</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5844; 27712</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7254; 29031</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>83782; 141467</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>55144; 115169</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>11600; 39672</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>13164; 42763</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>